--- a/Entregavel_02/Sprint_01/GQA/GQA-CHQ-CHECKLIST_DE_QUALIDADE.xlsx
+++ b/Entregavel_02/Sprint_01/GQA/GQA-CHQ-CHECKLIST_DE_QUALIDADE.xlsx
@@ -13,12 +13,12 @@
     <sheet name="GCO" sheetId="4" r:id="rId4"/>
     <sheet name="Resultados" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Check-list de acompanhamento dos artefatos produzidos na Sprint 2.</t>
   </si>
@@ -57,174 +57,6 @@
   </si>
   <si>
     <t>Observação</t>
-  </si>
-  <si>
-    <t>O escopo de trabalho foi definido?</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Foram definidos o modelo e fases do ciclo de vida do projeto?</t>
-  </si>
-  <si>
-    <t>Foram estabelecidos e mantidos o orçamento, cronograma do projeto incluindo a definição de marcos e pontos de controle?</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Falta adicionar os custos do pessoal.</t>
-  </si>
-  <si>
-    <t>Os recursos humanos foram avaliados e alocados para cada função de acordo com os perfis?</t>
-  </si>
-  <si>
-    <t>A viabilidade para o atingimento das metas do projeto considerando as restrições e recursos foi avaliada? Os ajustes ou alterações necessárias foram identificados e realizados?</t>
-  </si>
-  <si>
-    <t>Os riscos do projeto foram monitorados?</t>
-  </si>
-  <si>
-    <t>Foram feitas revisões do plano de projeto com todos os interessados, o comprometimento destes foi obtido? </t>
-  </si>
-  <si>
-    <t>Os marcos  foram planejados e realizados conforme o planejamento?</t>
-  </si>
-  <si>
-    <t>As tarefas assumidas foram concluídas ou caso não, foram justificadas ao gestor de portfólio?</t>
-  </si>
-  <si>
-    <t>Foram identificados os produtos que deverão ser entregues no final do projeto? </t>
-  </si>
-  <si>
-    <t>As atividades que estão no plano de projeto, mais que não serão contempladas no projeto, foram listadas e o motivo foi explicado? </t>
-  </si>
-  <si>
-    <t>As priorizações das tarefas foram consideradas nas alocações nos ciclos de desenvolvimento? </t>
-  </si>
-  <si>
-    <t>Cada um dos papéis identificados no projeto está listado em alguma tarefa do cronograma? (Com exceção do Gerente de Portfólio)</t>
-  </si>
-  <si>
-    <t>O cronograma está consistente com os requisitos? Todos os requisitos definidos para o projeto estão no cronograma? </t>
-  </si>
-  <si>
-    <t>Os tickets realizados tiveram suas horas registradas?</t>
-  </si>
-  <si>
-    <t>Utilizando a ferramenta kanbantool.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os documentos e informações gerados pelas atividades do processo foram devidamente armazenados, garantindo sua proteção e controle de acesso? </t>
-  </si>
-  <si>
-    <t>Utilizando-se do Google Drive.</t>
-  </si>
-  <si>
-    <t>Foi definido um plano de riscos? </t>
-  </si>
-  <si>
-    <t>Existe uma política organizacional estabelecida e mantida para o processo de gerencia de projetos?</t>
-  </si>
-  <si>
-    <t>A execução do processo de gerencia de projetos foi planejada?</t>
-  </si>
-  <si>
-    <t>A execução do processo de gerencia de projetos foi monitorada e ajustes foram realizados para tratar desvios?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As responsabilidades e a autoridade para executar o processo foram definidas, atribuídas e comunicadas a todos os interessados? </t>
-  </si>
-  <si>
-    <t>Foi utilizado o metodo de estimativa para estimar as atividades?</t>
-  </si>
-  <si>
-    <t>As comunicações previstas na matriz de comunicação foram realizadas?</t>
-  </si>
-  <si>
-    <t>Os requisitos foram validados junto ao solicitante?</t>
-  </si>
-  <si>
-    <t>Até o momento desta avaliação, a validaçãos ainda não havia sido feita.</t>
-  </si>
-  <si>
-    <t>As pessoas autorizadas a definir e alterar requisitos foram identidicadas?</t>
-  </si>
-  <si>
-    <t>Os requisitos foram avaliados com base em critérios técnicos?</t>
-  </si>
-  <si>
-    <t>A equipe técnica se comprometeu com os requisitos?</t>
-  </si>
-  <si>
-    <t>As dependencias entre requjsitos foram registradas no campo 'Requisitos' do ticket.</t>
-  </si>
-  <si>
-    <t>Os requisitos são rastreáveis aos seus respectivos produtos de trabalho?</t>
-  </si>
-  <si>
-    <t>Revisões foram realizadas a fim de eliminar inconsistências?</t>
-  </si>
-  <si>
-    <t>Foram executadas ações para corrigir inconsistências identificadas nos requisitos durante o projeto?</t>
-  </si>
-  <si>
-    <t>Existe um histórico de solicitaçaõ de mudanças em requisitos do projeto que esteja disponivel para a equipe?</t>
-  </si>
-  <si>
-    <t>Mudanças nos requisitos não armazenadas em um histórico.</t>
-  </si>
-  <si>
-    <t>Foi usado o Google Drive para armazenamento dos documentos</t>
-  </si>
-  <si>
-    <t>Existe uma política organizacional estabelecida e mantida para o processo de Gerencia de Requisitos?</t>
-  </si>
-  <si>
-    <t>A execução do processo de  Gerencia de Requisitos foi planejada?</t>
-  </si>
-  <si>
-    <t>A execução do processo de  Gerencia de Requisitos foi monitorada e ajustes foram realizados para tratar desvios?</t>
-  </si>
-  <si>
-    <t>Um Sistema de Gerência de Configuração foi estabelecido e mantido?</t>
-  </si>
-  <si>
-    <t>Um plano de Gerência de Configuração foi definido?</t>
-  </si>
-  <si>
-    <t>Os itens de configuração foram identificados com base em critérios estabelecidos?</t>
-  </si>
-  <si>
-    <t>Os itens de configuração sujeitos a um controle formal foram colocados sob baseline?</t>
-  </si>
-  <si>
-    <t>A situação dos itens de configuração e das baselines foi registrada ao longo do tempo e disponibilizada?</t>
-  </si>
-  <si>
-    <t>Modificações em itens de configuração foram controladas?</t>
-  </si>
-  <si>
-    <t>O armazenamento, o manuseio e a liberação de itens de configuração e baselines foram controlados?</t>
-  </si>
-  <si>
-    <t>Os artefatos foram nomeados de acordo com as regras descritas no plano de configuração?</t>
-  </si>
-  <si>
-    <t>Os documentos gerados estão de acordo com o template?</t>
-  </si>
-  <si>
-    <t>Auditorias de configuração foram realizadas objetivamente para assegurar que as baselines e os itens de configuração estejam íntegros, completos e consistentes?</t>
-  </si>
-  <si>
-    <t>Existe uma política organizacional estabelecida e mantida para o processo de Gerencia de Configuração?</t>
-  </si>
-  <si>
-    <t>A execução do processo de  Gerencia de Configuração foi planejada?</t>
-  </si>
-  <si>
-    <t>A execução do processo de  Gerencia de Configuração foi monitorada e ajustes foram realizados para tratar desvios?</t>
   </si>
   <si>
     <t>Quantidade de conformidades</t>
@@ -8934,7 +8766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D2:D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8966,12 +8800,8 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -8980,12 +8810,8 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="21"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -8994,15 +8820,9 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
@@ -9010,12 +8830,8 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="21"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -9024,12 +8840,8 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="21"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -9038,12 +8850,8 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="21"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -9052,12 +8860,8 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="21"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -9066,12 +8870,8 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -9080,12 +8880,8 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -9094,12 +8890,8 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -9108,12 +8900,8 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -9122,12 +8910,8 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -9136,12 +8920,8 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -9150,12 +8930,8 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="21"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -9164,15 +8940,9 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
@@ -9180,15 +8950,9 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
     </row>
@@ -9196,12 +8960,8 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="21"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -9210,12 +8970,8 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="21"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -9224,12 +8980,8 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="21"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -9238,12 +8990,8 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="21"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -9252,12 +9000,8 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="21"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -9266,12 +9010,8 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -9280,12 +9020,8 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -17107,7 +16843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -17136,189 +16874,105 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="A2" s="26"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="26"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="29"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="26"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="29"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="26"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="29"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A6" s="26">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="29"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="29"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A8" s="26">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="29"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A9" s="26">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="29"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="30"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="75" customHeight="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>52</v>
-      </c>
+      <c r="A11" s="26"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="26"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="29"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="29"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="29"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -25220,7 +24874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -25249,198 +24905,113 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="26"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="33"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="26"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="33"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="26"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="33"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="26"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="33"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A6" s="26">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="33"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="33"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A8" s="26">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="33"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A9" s="26">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="75" customHeight="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>65</v>
-      </c>
+      <c r="A11" s="26"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="24"/>
       <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="75" customHeight="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="34" t="str">
-        <f>HYPERLINK("https://svn.riouxsvn.com/unismart/","Repositório: https://svn.riouxsvn.com/unismart/")</f>
-        <v>Repositório: https://svn.riouxsvn.com/unismart/</v>
-      </c>
+      <c r="A12" s="26"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -33326,9 +32897,6 @@
       <c r="F1000" s="12"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" display="https://svn.riouxsvn.com/unismart/"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -33337,7 +32905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -33353,13 +32923,13 @@
     <row r="1" spans="1:6">
       <c r="A1" s="39"/>
       <c r="B1" s="39" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>11</v>
@@ -33368,68 +32938,32 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="39" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
-      <c r="B2" s="42">
-        <f>COUNTIFS(GPR!C2:C24,"&lt;&gt;NÃO",GPR!C2:C24,"&lt;&gt;")</f>
-        <v>22</v>
-      </c>
-      <c r="C2" s="42">
-        <f>COUNTIF(GPR!A2:A24,"&lt;&gt;")</f>
-        <v>23</v>
-      </c>
-      <c r="D2" s="43">
-        <f t="shared" ref="D2:D4" si="0">(B2/C2)</f>
-        <v>0.95652173913043481</v>
-      </c>
-      <c r="E2" s="42" t="str">
-        <f t="shared" ref="E2:E4" si="1">IF(D2&lt;=70%,"CRÍTICO",IF(D2&gt;=80%,"NORMAL","ALERTA"))</f>
-        <v>NORMAL</v>
-      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
-      <c r="B3" s="44">
-        <f>COUNTIFS(GRE!C2:C14,"&lt;&gt;NÃO",GRE!C2:C14,"&lt;&gt;")</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="44">
-        <f>COUNTIF(GRE!A2:A14,"&lt;&gt;")</f>
-        <v>13</v>
-      </c>
-      <c r="D3" s="45">
-        <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="E3" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>NORMAL</v>
-      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="39" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
-      <c r="B4" s="42">
-        <f>COUNTIFS(GCO!C2:C15,"&lt;&gt;NÃO",GCO!C2:C15,"&lt;&gt;")</f>
-        <v>13</v>
-      </c>
-      <c r="C4" s="42">
-        <f>COUNTIF(GCO!A2:A15,"&lt;&gt;")</f>
-        <v>14</v>
-      </c>
-      <c r="D4" s="43">
-        <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="E4" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>NORMAL</v>
-      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
